--- a/file/ISL-908-PenghuGuide-01.xlsx
+++ b/file/ISL-908-PenghuGuide-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Islands/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772490F-2FF3-2848-8377-6CEEA9A35576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE9A9A-B608-5644-B0AC-524D0F4267A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="3600" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="15740" yWindow="3340" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
